--- a/OMS/OMS/bin/Debug/oms.xlsx
+++ b/OMS/OMS/bin/Debug/oms.xlsx
@@ -173,6 +173,15 @@
   </x:si>
   <x:si>
     <x:t>Novi opis duzi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20240104084543_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024-01-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Radni se</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -523,7 +532,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F12"/>
+  <x:dimension ref="A1:F13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -769,6 +778,26 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/OMS/OMS/bin/Debug/oms.xlsx
+++ b/OMS/OMS/bin/Debug/oms.xlsx
@@ -91,10 +91,13 @@
     <x:t>2008-09-05</x:t>
   </x:si>
   <x:si>
+    <x:t>Zatvoren</x:t>
+  </x:si>
+  <x:si>
     <x:t>Kvar transformatora</x:t>
   </x:si>
   <x:si>
-    <x:t>Transformator se pokrvario 9/5 oko pola 12,uzrok nepoznat</x:t>
+    <x:t>Popravljeno</x:t>
   </x:si>
   <x:si>
     <x:t>18</x:t>
@@ -166,9 +169,6 @@
     <x:t>2024-01-02</x:t>
   </x:si>
   <x:si>
-    <x:t>Zatvoren</x:t>
-  </x:si>
-  <x:si>
     <x:t>Kvar na banderi</x:t>
   </x:si>
   <x:si>
@@ -182,6 +182,21 @@
   </x:si>
   <x:si>
     <x:t>Radni se</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20240111043406_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024-01-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kvae El.motora</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elektromotor se pokvario danas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -532,7 +547,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F13"/>
+  <x:dimension ref="A1:F14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -626,24 +641,24 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>20</x:v>
@@ -652,27 +667,27 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>17</x:v>
@@ -680,19 +695,19 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>17</x:v>
@@ -700,19 +715,19 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>11</x:v>
@@ -720,19 +735,19 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>17</x:v>
@@ -740,19 +755,19 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>17</x:v>
@@ -760,13 +775,13 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>51</x:v>
@@ -775,7 +790,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -795,7 +810,27 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>60</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
